--- a/EMPLOYEE PERFORMANCE SCORE EXCEL.xlsx
+++ b/EMPLOYEE PERFORMANCE SCORE EXCEL.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rithi\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13741F40-A3DF-42A4-96C9-4C1903B81B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{11B09383-AF67-4470-9663-17050ED52CBB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$A$1:$N$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -134,8 +131,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,21 +222,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -268,15 +255,12 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="0"/>
       <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -287,7 +271,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -298,7 +281,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -328,7 +310,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -352,7 +333,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -360,7 +341,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -384,7 +364,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -392,7 +372,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -416,7 +395,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -424,7 +403,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -448,7 +426,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -456,7 +434,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -480,7 +457,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -488,7 +465,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -512,7 +488,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -520,7 +496,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -546,7 +521,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -554,7 +529,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -580,7 +554,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -588,7 +562,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -614,7 +587,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -622,7 +595,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -648,7 +620,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-736E-4AD1-B138-916138DAA62C}"/>
               </c:ext>
@@ -683,18 +655,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -724,18 +684,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -765,18 +713,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -806,18 +742,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -847,18 +771,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -888,18 +800,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -931,18 +831,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -974,18 +862,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1017,18 +893,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1060,18 +924,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-736E-4AD1-B138-916138DAA62C}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1081,12 +933,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -1102,7 +949,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1183,21 +1030,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-736E-4AD1-B138-916138DAA62C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
           <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -1209,15 +1049,14 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1246,570 +1085,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1832,7 +1111,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F61179-C4FC-E2CC-4616-016360D1243B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9F61179-C4FC-E2CC-4616-016360D1243B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1133,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="rithika srinivasan" refreshedDate="45530.446233680559" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{AA53F672-8EA7-4DBD-9F70-558A6C774DD3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="rithika srinivasan" refreshedDate="45530.446233680559" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -1958,7 +1237,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFC4E780-0DBA-4161-9027-031ECB66BCE2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2115,7 +1394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2167,7 +1446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2361,41 +1640,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F0311F-7E12-417E-B165-4DCA9D99C550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D683462-F86E-491C-8EBB-C6A9D3D8B7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -2403,7 +1682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2443,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2459,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2475,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -2483,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2499,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2523,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -2531,17 +1810,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -2555,23 +1834,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AFF751-BB7F-4FCD-84ED-76A897E9F4F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +1875,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2619,7 +1898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2642,7 +1921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2665,7 +1944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2688,7 +1967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2711,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2734,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2757,7 +2036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2780,7 +2059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2803,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2830,8 +2109,8 @@
   <conditionalFormatting sqref="E2:E11">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF008AEF"/>
       </dataBar>
       <extLst>
